--- a/selenium/src/main/java/resources/actionData.xlsx
+++ b/selenium/src/main/java/resources/actionData.xlsx
@@ -3,37 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912C7904-EB14-4687-8AEB-27DF50AA0521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{98EFC9B0-145E-4155-B30B-AC07D98B0C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2BE8C313-6526-4CCF-930A-B4285EB32B78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="76">
   <si>
     <t>TestCases</t>
   </si>
@@ -228,6 +216,39 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>Reversed Text</t>
+  </si>
+  <si>
+    <t>reversing cash transaction</t>
+  </si>
+  <si>
+    <t>reversing cheque transaction</t>
+  </si>
+  <si>
+    <t>reversing dd transaction</t>
+  </si>
+  <si>
+    <t>reversing rtgs transaction</t>
+  </si>
+  <si>
+    <t>reversing neft transaction</t>
+  </si>
+  <si>
+    <t>reversing imps transaction</t>
+  </si>
+  <si>
+    <t>reversing upi transaction</t>
+  </si>
+  <si>
+    <t>Zila</t>
+  </si>
+  <si>
+    <t>Bounced Text</t>
+  </si>
+  <si>
+    <t>bounced cheque</t>
   </si>
 </sst>
 </file>
@@ -594,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E68DA0-5110-4BBF-9275-01A66C4E8004}">
-  <dimension ref="A1:AB14"/>
+  <dimension ref="A1:AD14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="X13" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,9 +651,11 @@
     <col min="26" max="26" width="15.85546875" customWidth="1"/>
     <col min="27" max="27" width="14" customWidth="1"/>
     <col min="28" max="28" width="16.5703125" customWidth="1"/>
+    <col min="29" max="29" width="26.140625" customWidth="1"/>
+    <col min="30" max="30" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -717,8 +740,14 @@
       <c r="AB1" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="AC1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -803,8 +832,14 @@
       <c r="AB2" t="s">
         <v>21</v>
       </c>
+      <c r="AC2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -889,8 +924,14 @@
       <c r="AB4" t="s">
         <v>21</v>
       </c>
+      <c r="AC4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -975,8 +1016,14 @@
       <c r="AB6" t="s">
         <v>21</v>
       </c>
+      <c r="AC6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -1061,8 +1108,14 @@
       <c r="AB8" t="s">
         <v>21</v>
       </c>
+      <c r="AC8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1147,8 +1200,14 @@
       <c r="AB10" t="s">
         <v>21</v>
       </c>
+      <c r="AC10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -1233,8 +1292,14 @@
       <c r="AB12" t="s">
         <v>21</v>
       </c>
+      <c r="AC12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -1308,7 +1373,7 @@
         <v>18</v>
       </c>
       <c r="Y14" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="Z14" t="s">
         <v>19</v>
@@ -1318,6 +1383,12 @@
       </c>
       <c r="AB14" t="s">
         <v>21</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/selenium/src/main/java/resources/actionData.xlsx
+++ b/selenium/src/main/java/resources/actionData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{98EFC9B0-145E-4155-B30B-AC07D98B0C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6BC2564D-54EB-4419-9734-B86DCD0F3D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2BE8C313-6526-4CCF-930A-B4285EB32B78}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>TestCases</t>
   </si>
@@ -249,6 +249,54 @@
   </si>
   <si>
     <t>bounced cheque</t>
+  </si>
+  <si>
+    <t>Action Required For pan approve text</t>
+  </si>
+  <si>
+    <t>Action required for pan reject text</t>
+  </si>
+  <si>
+    <t>ch approve</t>
+  </si>
+  <si>
+    <t>che reject</t>
+  </si>
+  <si>
+    <t>dd approve</t>
+  </si>
+  <si>
+    <t>dd reject</t>
+  </si>
+  <si>
+    <t>rt approving</t>
+  </si>
+  <si>
+    <t>rt rejecting</t>
+  </si>
+  <si>
+    <t>nt app</t>
+  </si>
+  <si>
+    <t>nt reject</t>
+  </si>
+  <si>
+    <t>im reject</t>
+  </si>
+  <si>
+    <t>upi approving</t>
+  </si>
+  <si>
+    <t>upi reject</t>
+  </si>
+  <si>
+    <t>cash approve</t>
+  </si>
+  <si>
+    <t>cash reject</t>
+  </si>
+  <si>
+    <t>im approve</t>
   </si>
 </sst>
 </file>
@@ -615,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E68DA0-5110-4BBF-9275-01A66C4E8004}">
-  <dimension ref="A1:AD14"/>
+  <dimension ref="A1:AF14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X13" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView tabSelected="1" topLeftCell="Y2" workbookViewId="0">
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,9 +701,11 @@
     <col min="28" max="28" width="16.5703125" customWidth="1"/>
     <col min="29" max="29" width="26.140625" customWidth="1"/>
     <col min="30" max="30" width="18" customWidth="1"/>
+    <col min="31" max="31" width="13.85546875" customWidth="1"/>
+    <col min="32" max="32" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -746,8 +796,14 @@
       <c r="AD1" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="AE1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -838,8 +894,14 @@
       <c r="AD2" t="s">
         <v>75</v>
       </c>
+      <c r="AE2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -930,8 +992,14 @@
       <c r="AD4" t="s">
         <v>64</v>
       </c>
+      <c r="AE4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1022,8 +1090,14 @@
       <c r="AD6" t="s">
         <v>64</v>
       </c>
+      <c r="AE6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -1114,8 +1188,14 @@
       <c r="AD8" t="s">
         <v>64</v>
       </c>
+      <c r="AE8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1206,8 +1286,14 @@
       <c r="AD10" t="s">
         <v>64</v>
       </c>
+      <c r="AE10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -1298,8 +1384,14 @@
       <c r="AD12" t="s">
         <v>64</v>
       </c>
+      <c r="AE12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -1389,6 +1481,12 @@
       </c>
       <c r="AD14" t="s">
         <v>64</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
